--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suzukimitsuru/Documents/Projects/excel-extructor-with-all-objects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25FEFB9-B51B-114D-80A5-F698963715DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D816F0E9-EA8B-2A46-8961-D868CB5A1012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="500" windowWidth="24000" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="500" windowWidth="24000" windowHeight="16560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="リスト" sheetId="1" r:id="rId1"/>
+    <sheet name="文字飾り" sheetId="2" r:id="rId1"/>
+    <sheet name="リスト" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">リスト!$6:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">リスト!$6:$6</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,8 +28,57 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={E0A5A356-D9F6-C143-9648-196B51E10CD2}</author>
+    <author>suzuki mitsuru</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{E0A5A356-D9F6-C143-9648-196B51E10CD2}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    今日の日付を入力して下さい</t>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="1" shapeId="0" xr:uid="{E8206770-A32C-0D4F-B99E-A591843F4FD4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>suzuki mitsuru:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Yu Gothic UI"/>
+          </rPr>
+          <t>項目名は漢字で入力して下さい</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>タスクまたは題名</t>
   </si>
@@ -111,12 +161,89 @@
     </r>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>飾り無し</t>
+    <rPh sb="0" eb="1">
+      <t>カザリ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>取り消し線</t>
+    <rPh sb="0" eb="1">
+      <t>トリケセィ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>斜体</t>
+    <rPh sb="0" eb="2">
+      <t>シャタイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>太字</t>
+    <rPh sb="0" eb="2">
+      <t>フトジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>斜体で太字</t>
+    <rPh sb="0" eb="2">
+      <t>シャタイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フトジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">混在
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">取り消し線
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>下線</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>コンザイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トリケセィ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">シタセン </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="12">
+  <fonts count="21">
     <font>
       <b/>
       <sz val="10"/>
@@ -212,6 +339,78 @@
       <name val="Meiryo UI"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic UI"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic UI"/>
     </font>
   </fonts>
   <fills count="3">
@@ -244,7 +443,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -278,6 +477,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -474,6 +681,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="充 鈴木" id="{9B65540F-D25D-BD41-9B4C-5D9023C9CB48}" userId="c6a3d8cc79d402fa" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -754,16 +967,74 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B7" dT="2024-02-15T18:20:43.65" personId="{9B65540F-D25D-BD41-9B4C-5D9023C9CB48}" id="{E0A5A356-D9F6-C143-9648-196B51E10CD2}">
+    <text>今日の日付を入力して下さい</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C3C614-3257-7A45-B623-A297E6E0E1BB}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="15.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="45">
+      <c r="A6" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1">
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -871,8 +1142,9 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suzukimitsuru/Documents/Projects/excel-extructor-with-all-objects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D816F0E9-EA8B-2A46-8961-D868CB5A1012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8373625A-A4F8-C042-B6D2-340154174FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="500" windowWidth="24000" windowHeight="16560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文字飾り" sheetId="2" r:id="rId1"/>
     <sheet name="リスト" sheetId="1" r:id="rId2"/>
+    <sheet name="画像" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">リスト!$6:$6</definedName>
@@ -603,12 +604,2482 @@
 </styleSheet>
 </file>
 
+<file path=xl/diagrams/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/data1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{F3ECB741-1C3E-6542-8A8C-C31B80012818}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/pyramid1" loCatId="" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8B405AEE-5D13-B44B-83AD-22DA4533E9E2}">
+      <dgm:prSet phldrT="[テキスト]" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D4276168-7CD6-1740-B7F6-1E4454094273}" type="parTrans" cxnId="{330A180F-E9F2-6D49-9C71-97570B69AAF0}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DC592B8F-B6DF-2741-85A0-C7BC14A308BF}" type="sibTrans" cxnId="{330A180F-E9F2-6D49-9C71-97570B69AAF0}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{57E4411A-6F77-7447-9548-D17431CEB58E}">
+      <dgm:prSet phldrT="[テキスト]" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B832365D-9D92-E341-BA67-E90D96060B5F}" type="parTrans" cxnId="{70C8F00D-2282-C54D-809C-389A2B245C2D}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E5842D95-1442-C040-B207-14E39CDA4513}" type="sibTrans" cxnId="{70C8F00D-2282-C54D-809C-389A2B245C2D}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DBE8B710-DE24-0541-BEAE-4260326B9F19}">
+      <dgm:prSet phldrT="[テキスト]" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{369D5CAC-AB1A-F54F-BA2F-64ED8F2D36D4}" type="parTrans" cxnId="{278630CA-A89F-DA48-A402-F0E53793C881}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{28BF0379-0B85-834B-8F3A-211B4A15DC01}" type="sibTrans" cxnId="{278630CA-A89F-DA48-A402-F0E53793C881}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F39B02C9-517F-E948-93E0-AF3824F19BC3}" type="pres">
+      <dgm:prSet presAssocID="{F3ECB741-1C3E-6542-8A8C-C31B80012818}" presName="Name0" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:dir/>
+          <dgm:animLvl val="lvl"/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{803A89E9-92DF-E04D-8C08-958614110529}" type="pres">
+      <dgm:prSet presAssocID="{8B405AEE-5D13-B44B-83AD-22DA4533E9E2}" presName="Name8" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D2988E48-E174-4046-B5A3-3C68DC9353A4}" type="pres">
+      <dgm:prSet presAssocID="{8B405AEE-5D13-B44B-83AD-22DA4533E9E2}" presName="level" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="3">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="1"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{88A2D242-6A7E-0344-B985-E5E041B44C2F}" type="pres">
+      <dgm:prSet presAssocID="{8B405AEE-5D13-B44B-83AD-22DA4533E9E2}" presName="levelTx" presStyleLbl="revTx" presStyleIdx="0" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="1"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EC84F153-A2E7-7A49-9F11-339DA6D4E45E}" type="pres">
+      <dgm:prSet presAssocID="{57E4411A-6F77-7447-9548-D17431CEB58E}" presName="Name8" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F9A1FF97-01C8-D349-A765-B2E3D5B4D026}" type="pres">
+      <dgm:prSet presAssocID="{57E4411A-6F77-7447-9548-D17431CEB58E}" presName="level" presStyleLbl="node1" presStyleIdx="1" presStyleCnt="3">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="1"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D9126A6A-A253-3F4D-8A5F-BFC644C52031}" type="pres">
+      <dgm:prSet presAssocID="{57E4411A-6F77-7447-9548-D17431CEB58E}" presName="levelTx" presStyleLbl="revTx" presStyleIdx="0" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="1"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D5FD065D-CDC5-6A4A-A028-4F8AEDAB056C}" type="pres">
+      <dgm:prSet presAssocID="{DBE8B710-DE24-0541-BEAE-4260326B9F19}" presName="Name8" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D49D4EB5-D196-574A-B7D3-75D2ED524D18}" type="pres">
+      <dgm:prSet presAssocID="{DBE8B710-DE24-0541-BEAE-4260326B9F19}" presName="level" presStyleLbl="node1" presStyleIdx="2" presStyleCnt="3">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="1"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3F4E1EDB-1CEA-3A44-A020-E3F3ED269F78}" type="pres">
+      <dgm:prSet presAssocID="{DBE8B710-DE24-0541-BEAE-4260326B9F19}" presName="levelTx" presStyleLbl="revTx" presStyleIdx="0" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="1"/>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{70C8F00D-2282-C54D-809C-389A2B245C2D}" srcId="{F3ECB741-1C3E-6542-8A8C-C31B80012818}" destId="{57E4411A-6F77-7447-9548-D17431CEB58E}" srcOrd="1" destOrd="0" parTransId="{B832365D-9D92-E341-BA67-E90D96060B5F}" sibTransId="{E5842D95-1442-C040-B207-14E39CDA4513}"/>
+    <dgm:cxn modelId="{330A180F-E9F2-6D49-9C71-97570B69AAF0}" srcId="{F3ECB741-1C3E-6542-8A8C-C31B80012818}" destId="{8B405AEE-5D13-B44B-83AD-22DA4533E9E2}" srcOrd="0" destOrd="0" parTransId="{D4276168-7CD6-1740-B7F6-1E4454094273}" sibTransId="{DC592B8F-B6DF-2741-85A0-C7BC14A308BF}"/>
+    <dgm:cxn modelId="{DDE36632-31B3-FB4E-B81A-3E81BC475B29}" type="presOf" srcId="{8B405AEE-5D13-B44B-83AD-22DA4533E9E2}" destId="{D2988E48-E174-4046-B5A3-3C68DC9353A4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pyramid1"/>
+    <dgm:cxn modelId="{C8C8454F-E986-8C45-8C6F-6118158241AD}" type="presOf" srcId="{F3ECB741-1C3E-6542-8A8C-C31B80012818}" destId="{F39B02C9-517F-E948-93E0-AF3824F19BC3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pyramid1"/>
+    <dgm:cxn modelId="{15492E77-F4DB-424B-BBC7-2A4C25D2BCB7}" type="presOf" srcId="{57E4411A-6F77-7447-9548-D17431CEB58E}" destId="{D9126A6A-A253-3F4D-8A5F-BFC644C52031}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pyramid1"/>
+    <dgm:cxn modelId="{A53A8CAF-3502-E641-BAE1-C65192119967}" type="presOf" srcId="{57E4411A-6F77-7447-9548-D17431CEB58E}" destId="{F9A1FF97-01C8-D349-A765-B2E3D5B4D026}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pyramid1"/>
+    <dgm:cxn modelId="{4DFBCEC4-E671-A446-947E-5D04E8D611DC}" type="presOf" srcId="{DBE8B710-DE24-0541-BEAE-4260326B9F19}" destId="{D49D4EB5-D196-574A-B7D3-75D2ED524D18}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pyramid1"/>
+    <dgm:cxn modelId="{278630CA-A89F-DA48-A402-F0E53793C881}" srcId="{F3ECB741-1C3E-6542-8A8C-C31B80012818}" destId="{DBE8B710-DE24-0541-BEAE-4260326B9F19}" srcOrd="2" destOrd="0" parTransId="{369D5CAC-AB1A-F54F-BA2F-64ED8F2D36D4}" sibTransId="{28BF0379-0B85-834B-8F3A-211B4A15DC01}"/>
+    <dgm:cxn modelId="{88F72DED-A845-6744-9DEA-0EA13B0442A7}" type="presOf" srcId="{8B405AEE-5D13-B44B-83AD-22DA4533E9E2}" destId="{88A2D242-6A7E-0344-B985-E5E041B44C2F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pyramid1"/>
+    <dgm:cxn modelId="{C8014AF9-DD9A-B041-8C4B-F6E4831EDB60}" type="presOf" srcId="{DBE8B710-DE24-0541-BEAE-4260326B9F19}" destId="{3F4E1EDB-1CEA-3A44-A020-E3F3ED269F78}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pyramid1"/>
+    <dgm:cxn modelId="{05B6BBE2-6C9F-A94A-ADF0-1D5C031D6876}" type="presParOf" srcId="{F39B02C9-517F-E948-93E0-AF3824F19BC3}" destId="{803A89E9-92DF-E04D-8C08-958614110529}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pyramid1"/>
+    <dgm:cxn modelId="{68884CF8-FC46-D641-B37A-7C4828900B84}" type="presParOf" srcId="{803A89E9-92DF-E04D-8C08-958614110529}" destId="{D2988E48-E174-4046-B5A3-3C68DC9353A4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pyramid1"/>
+    <dgm:cxn modelId="{22AB17C3-61CF-7D42-976B-C19D69DB35E0}" type="presParOf" srcId="{803A89E9-92DF-E04D-8C08-958614110529}" destId="{88A2D242-6A7E-0344-B985-E5E041B44C2F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pyramid1"/>
+    <dgm:cxn modelId="{E91E749F-8781-3743-AC78-D373FAD03793}" type="presParOf" srcId="{F39B02C9-517F-E948-93E0-AF3824F19BC3}" destId="{EC84F153-A2E7-7A49-9F11-339DA6D4E45E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pyramid1"/>
+    <dgm:cxn modelId="{4180C8FD-E124-7B4B-A6BF-45E72D2CE573}" type="presParOf" srcId="{EC84F153-A2E7-7A49-9F11-339DA6D4E45E}" destId="{F9A1FF97-01C8-D349-A765-B2E3D5B4D026}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pyramid1"/>
+    <dgm:cxn modelId="{2E7EFFC6-F5B0-0B42-9810-6E31C4EF3102}" type="presParOf" srcId="{EC84F153-A2E7-7A49-9F11-339DA6D4E45E}" destId="{D9126A6A-A253-3F4D-8A5F-BFC644C52031}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pyramid1"/>
+    <dgm:cxn modelId="{68D8A192-4AE8-4E46-B501-6F68E122F003}" type="presParOf" srcId="{F39B02C9-517F-E948-93E0-AF3824F19BC3}" destId="{D5FD065D-CDC5-6A4A-A028-4F8AEDAB056C}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pyramid1"/>
+    <dgm:cxn modelId="{09BBDBEA-1394-484E-AF53-25EBBF5091E0}" type="presParOf" srcId="{D5FD065D-CDC5-6A4A-A028-4F8AEDAB056C}" destId="{D49D4EB5-D196-574A-B7D3-75D2ED524D18}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pyramid1"/>
+    <dgm:cxn modelId="{46D10126-9A69-5A4E-A070-EC8940D88A6D}" type="presParOf" srcId="{D5FD065D-CDC5-6A4A-A028-4F8AEDAB056C}" destId="{3F4E1EDB-1CEA-3A44-A020-E3F3ED269F78}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pyramid1"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId5" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{D2988E48-E174-4046-B5A3-3C68DC9353A4}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1529080" y="0"/>
+          <a:ext cx="1529080" cy="902546"/>
+        </a:xfrm>
+        <a:prstGeom prst="trapezoid">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 84709"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="35560" tIns="35560" rIns="35560" bIns="35560" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1244600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1529080" y="0"/>
+        <a:ext cx="1529080" cy="902546"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{F9A1FF97-01C8-D349-A765-B2E3D5B4D026}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="764539" y="902546"/>
+          <a:ext cx="3058160" cy="902546"/>
+        </a:xfrm>
+        <a:prstGeom prst="trapezoid">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 84709"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="46990" tIns="46990" rIns="46990" bIns="46990" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1644650">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3700" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1299718" y="902546"/>
+        <a:ext cx="1987804" cy="902546"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{D49D4EB5-D196-574A-B7D3-75D2ED524D18}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1805093"/>
+          <a:ext cx="4587240" cy="902546"/>
+        </a:xfrm>
+        <a:prstGeom prst="trapezoid">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 84709"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="64770" tIns="64770" rIns="64770" bIns="64770" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="2266950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="5100" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="802766" y="1805093"/>
+        <a:ext cx="2981706" cy="902546"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/layout1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/pyramid1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="pyramid" pri="1000"/>
+  </dgm:catLst>
+  <dgm:sampData useDef="1">
+    <dgm:dataModel>
+      <dgm:ptLst/>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="2"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="3" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="4" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="2"/>
+        <dgm:pt modelId="3"/>
+        <dgm:pt modelId="4"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="5" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="0" destId="4" srcOrd="3" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="Name0">
+    <dgm:varLst>
+      <dgm:dir/>
+      <dgm:animLvl val="lvl"/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:choose name="Name1">
+      <dgm:if name="Name2" func="var" arg="dir" op="equ" val="norm">
+        <dgm:alg type="pyra">
+          <dgm:param type="linDir" val="fromB"/>
+          <dgm:param type="txDir" val="fromT"/>
+          <dgm:param type="pyraAcctPos" val="aft"/>
+          <dgm:param type="pyraAcctTxMar" val="step"/>
+          <dgm:param type="pyraAcctBkgdNode" val="acctBkgd"/>
+          <dgm:param type="pyraAcctTxNode" val="acctTx"/>
+          <dgm:param type="pyraLvlNode" val="level"/>
+        </dgm:alg>
+      </dgm:if>
+      <dgm:else name="Name3">
+        <dgm:alg type="pyra">
+          <dgm:param type="linDir" val="fromB"/>
+          <dgm:param type="txDir" val="fromT"/>
+          <dgm:param type="pyraAcctPos" val="bef"/>
+          <dgm:param type="pyraAcctTxMar" val="step"/>
+          <dgm:param type="pyraAcctBkgdNode" val="acctBkgd"/>
+          <dgm:param type="pyraAcctTxNode" val="acctTx"/>
+          <dgm:param type="pyraLvlNode" val="level"/>
+        </dgm:alg>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:choose name="Name4">
+      <dgm:if name="Name5" axis="root des" ptType="all node" func="maxDepth" op="gte" val="2">
+        <dgm:constrLst>
+          <dgm:constr type="primFontSz" for="des" forName="levelTx" op="equ"/>
+          <dgm:constr type="secFontSz" for="des" forName="acctTx" op="equ"/>
+          <dgm:constr type="pyraAcctRatio" val="0.32"/>
+        </dgm:constrLst>
+      </dgm:if>
+      <dgm:else name="Name6">
+        <dgm:constrLst>
+          <dgm:constr type="primFontSz" for="des" forName="levelTx" op="equ"/>
+          <dgm:constr type="secFontSz" for="des" forName="acctTx" op="equ"/>
+          <dgm:constr type="pyraAcctRatio"/>
+        </dgm:constrLst>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:ruleLst/>
+    <dgm:forEach name="Name7" axis="ch" ptType="node">
+      <dgm:layoutNode name="Name8">
+        <dgm:alg type="composite">
+          <dgm:param type="horzAlign" val="none"/>
+        </dgm:alg>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+          <dgm:adjLst/>
+        </dgm:shape>
+        <dgm:presOf/>
+        <dgm:choose name="Name9">
+          <dgm:if name="Name10" axis="self" ptType="node" func="pos" op="equ" val="1">
+            <dgm:constrLst>
+              <dgm:constr type="ctrX" for="ch" forName="acctBkgd" val="1"/>
+              <dgm:constr type="ctrY" for="ch" forName="acctBkgd" val="1"/>
+              <dgm:constr type="w" for="ch" forName="acctBkgd" val="1"/>
+              <dgm:constr type="h" for="ch" forName="acctBkgd" val="1"/>
+              <dgm:constr type="ctrX" for="ch" forName="acctTx" val="1"/>
+              <dgm:constr type="ctrY" for="ch" forName="acctTx" val="1"/>
+              <dgm:constr type="w" for="ch" forName="acctTx" val="1"/>
+              <dgm:constr type="h" for="ch" forName="acctTx" val="1"/>
+              <dgm:constr type="ctrX" for="ch" forName="level" val="1"/>
+              <dgm:constr type="ctrY" for="ch" forName="level" val="1"/>
+              <dgm:constr type="w" for="ch" forName="level" val="1"/>
+              <dgm:constr type="h" for="ch" forName="level" val="1"/>
+              <dgm:constr type="ctrX" for="ch" forName="levelTx" refType="ctrX" refFor="ch" refForName="level"/>
+              <dgm:constr type="ctrY" for="ch" forName="levelTx" refType="ctrY" refFor="ch" refForName="level"/>
+              <dgm:constr type="w" for="ch" forName="levelTx" refType="w" refFor="ch" refForName="level"/>
+              <dgm:constr type="h" for="ch" forName="levelTx" refType="h" refFor="ch" refForName="level"/>
+            </dgm:constrLst>
+          </dgm:if>
+          <dgm:else name="Name11">
+            <dgm:constrLst>
+              <dgm:constr type="ctrX" for="ch" forName="acctBkgd" val="1"/>
+              <dgm:constr type="ctrY" for="ch" forName="acctBkgd" val="1"/>
+              <dgm:constr type="w" for="ch" forName="acctBkgd" val="1"/>
+              <dgm:constr type="h" for="ch" forName="acctBkgd" val="1"/>
+              <dgm:constr type="ctrX" for="ch" forName="acctTx" val="1"/>
+              <dgm:constr type="ctrY" for="ch" forName="acctTx" val="1"/>
+              <dgm:constr type="w" for="ch" forName="acctTx" val="1"/>
+              <dgm:constr type="h" for="ch" forName="acctTx" val="1"/>
+              <dgm:constr type="ctrX" for="ch" forName="level" val="1"/>
+              <dgm:constr type="ctrY" for="ch" forName="level" val="1"/>
+              <dgm:constr type="w" for="ch" forName="level" val="1"/>
+              <dgm:constr type="h" for="ch" forName="level" val="1"/>
+              <dgm:constr type="ctrX" for="ch" forName="levelTx" refType="ctrX" refFor="ch" refForName="level"/>
+              <dgm:constr type="ctrY" for="ch" forName="levelTx" refType="ctrY" refFor="ch" refForName="level"/>
+              <dgm:constr type="w" for="ch" forName="levelTx" refType="w" refFor="ch" refForName="level" fact="0.65"/>
+              <dgm:constr type="h" for="ch" forName="levelTx" refType="h" refFor="ch" refForName="level"/>
+            </dgm:constrLst>
+          </dgm:else>
+        </dgm:choose>
+        <dgm:ruleLst/>
+        <dgm:choose name="Name12">
+          <dgm:if name="Name13" axis="ch" ptType="node" func="cnt" op="gte" val="1">
+            <dgm:layoutNode name="acctBkgd" styleLbl="alignAcc1">
+              <dgm:alg type="sp"/>
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="nonIsoscelesTrapezoid" r:blip="">
+                <dgm:adjLst/>
+              </dgm:shape>
+              <dgm:presOf axis="des" ptType="node"/>
+              <dgm:constrLst/>
+              <dgm:ruleLst/>
+            </dgm:layoutNode>
+            <dgm:layoutNode name="acctTx" styleLbl="alignAcc1">
+              <dgm:varLst>
+                <dgm:bulletEnabled val="1"/>
+              </dgm:varLst>
+              <dgm:alg type="tx">
+                <dgm:param type="stBulletLvl" val="1"/>
+                <dgm:param type="txAnchorVertCh" val="mid"/>
+              </dgm:alg>
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="nonIsoscelesTrapezoid" r:blip="" hideGeom="1">
+                <dgm:adjLst/>
+              </dgm:shape>
+              <dgm:presOf axis="des" ptType="node"/>
+              <dgm:constrLst>
+                <dgm:constr type="secFontSz" val="65"/>
+                <dgm:constr type="primFontSz" refType="secFontSz"/>
+                <dgm:constr type="tMarg" refType="secFontSz" fact="0.3"/>
+                <dgm:constr type="bMarg" refType="secFontSz" fact="0.3"/>
+                <dgm:constr type="lMarg" refType="secFontSz" fact="0.3"/>
+                <dgm:constr type="rMarg" refType="secFontSz" fact="0.3"/>
+              </dgm:constrLst>
+              <dgm:ruleLst>
+                <dgm:rule type="secFontSz" val="5" fact="NaN" max="NaN"/>
+              </dgm:ruleLst>
+            </dgm:layoutNode>
+          </dgm:if>
+          <dgm:else name="Name14"/>
+        </dgm:choose>
+        <dgm:layoutNode name="level">
+          <dgm:varLst>
+            <dgm:chMax val="1"/>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="sp"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="trapezoid" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="self"/>
+          <dgm:constrLst>
+            <dgm:constr type="h" val="500"/>
+            <dgm:constr type="w" val="1"/>
+          </dgm:constrLst>
+          <dgm:ruleLst/>
+        </dgm:layoutNode>
+        <dgm:layoutNode name="levelTx" styleLbl="revTx">
+          <dgm:varLst>
+            <dgm:chMax val="1"/>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" hideGeom="1">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="self"/>
+          <dgm:constrLst>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.1"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.1"/>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.1"/>
+            <dgm:constr type="rMarg" refType="primFontSz" fact="0.1"/>
+            <dgm:constr type="primFontSz" val="65"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+      </dgm:layoutNode>
+    </dgm:forEach>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/quickStyle1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -631,8 +3102,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1351280" y="873760"/>
-          <a:ext cx="2832100" cy="375920"/>
+          <a:off x="3220720" y="873760"/>
+          <a:ext cx="962660" cy="375920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -678,6 +3149,296 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>162560</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>355600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形吹き出し 2" descr="吹き出しの代替えテキスト">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AB58C74-BAA2-2BEA-6109-BAFC2731CA10}"/>
+            </a:ext>
+            <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
+              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1513840" y="883920"/>
+          <a:ext cx="1412240" cy="345440"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ここからリストです。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>995680</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>5080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="図表 3" descr="ピラミッド">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B8BA361-12BE-9E97-D4D1-EF3EE6196A2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId1" r:lo="rId2" r:qs="rId3" r:cs="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>193040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>965200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>274320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{930572F5-5BE5-E5B2-E85B-72905CEE464A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="487680" y="3332480"/>
+          <a:ext cx="1828800" cy="467360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>テキストボックス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1036320</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="右矢印 6" descr="矢印の代替えテキスト">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C52A76A-FD61-F6B9-5403-D4F9F517BCB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660400" y="4064000"/>
+          <a:ext cx="1727200" cy="731520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>右向き矢印</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C83594D-6BB6-7040-8EAF-ADE2892C07FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="812800" cy="812800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1034,7 +3795,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1147,4 +3908,19 @@
     <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC92727-E68C-434A-8CDA-1F3DDF2536C4}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData/>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suzukimitsuru/Documents/Projects/excel-extructor-with-all-objects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8373625A-A4F8-C042-B6D2-340154174FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526C9265-4325-1343-8B0B-DB927ABF2CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="500" windowWidth="24000" windowHeight="16560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1359,13 +1359,16 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{8B405AEE-5D13-B44B-83AD-22DA4533E9E2}">
-      <dgm:prSet phldrT="[テキスト]" phldr="1"/>
+      <dgm:prSet phldrT="[テキスト]"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            <a:t>高位</a:t>
+          </a:r>
         </a:p>
       </dgm:t>
     </dgm:pt>
@@ -1392,13 +1395,16 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{57E4411A-6F77-7447-9548-D17431CEB58E}">
-      <dgm:prSet phldrT="[テキスト]" phldr="1"/>
+      <dgm:prSet phldrT="[テキスト]"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            <a:t>中位</a:t>
+          </a:r>
         </a:p>
       </dgm:t>
     </dgm:pt>
@@ -1425,13 +1431,16 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{DBE8B710-DE24-0541-BEAE-4260326B9F19}">
-      <dgm:prSet phldrT="[テキスト]" phldr="1"/>
+      <dgm:prSet phldrT="[テキスト]"/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            <a:t>低位</a:t>
+          </a:r>
         </a:p>
       </dgm:t>
     </dgm:pt>
@@ -1625,12 +1634,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="35560" tIns="35560" rIns="35560" bIns="35560" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="64770" tIns="64770" rIns="64770" bIns="64770" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1244600">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="2266950">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -1642,7 +1651,10 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" kern="1200"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="5100" kern="1200"/>
+            <a:t>高位</a:t>
+          </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
@@ -1702,12 +1714,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="46990" tIns="46990" rIns="46990" bIns="46990" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="64770" tIns="64770" rIns="64770" bIns="64770" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1644650">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="2266950">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -1719,7 +1731,10 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3700" kern="1200"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="5100" kern="1200"/>
+            <a:t>中位</a:t>
+          </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
@@ -1796,7 +1811,10 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="5100" kern="1200"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="5100" kern="1200"/>
+            <a:t>低位</a:t>
+          </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
@@ -3091,7 +3109,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+        <xdr:cNvPr id="2" name="テキスト ボックス 1" descr="文字飾りの代替テキスト">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84252C61-4DEF-194D-A5AF-92569E916B47}"/>
@@ -3268,7 +3286,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+        <xdr:cNvPr id="6" name="テキスト ボックス 5" descr="横書きの&#10;代替テキスト">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{930572F5-5BE5-E5B2-E85B-72905CEE464A}"/>
@@ -3316,7 +3334,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>テキストボックス</a:t>
+            <a:t>横書き</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3795,7 +3813,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,18 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suzukimitsuru/Documents/Projects/excel-extructor-with-all-objects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526C9265-4325-1343-8B0B-DB927ABF2CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8680686-2D49-5449-8D7E-CBA8C68C2F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="500" windowWidth="24000" windowHeight="16560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="500" windowWidth="24000" windowHeight="16560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文字飾り" sheetId="2" r:id="rId1"/>
-    <sheet name="リスト" sheetId="1" r:id="rId2"/>
+    <sheet name="コメント" sheetId="4" r:id="rId2"/>
     <sheet name="画像" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">リスト!$6:$6</definedName>
-  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,19 +29,11 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>suzuki mitsuru</author>
     <author>tc={E0A5A356-D9F6-C143-9648-196B51E10CD2}</author>
-    <author>suzuki mitsuru</author>
   </authors>
   <commentList>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{E0A5A356-D9F6-C143-9648-196B51E10CD2}">
-      <text>
-        <t>[スレッド化されたコメント]
-使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
-コメント:
-    今日の日付を入力して下さい</t>
-      </text>
-    </comment>
-    <comment ref="C7" authorId="1" shapeId="0" xr:uid="{E8206770-A32C-0D4F-B99E-A591843F4FD4}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{E8206770-A32C-0D4F-B99E-A591843F4FD4}">
       <text>
         <r>
           <rPr>
@@ -74,94 +63,23 @@
         </r>
       </text>
     </comment>
+    <comment ref="B3" authorId="1" shapeId="0" xr:uid="{E0A5A356-D9F6-C143-9648-196B51E10CD2}">
+      <text>
+        <t xml:space="preserve">[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    今日の日付を入力して下さい
+返信:
+今日の日付を入力しました
+</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
-  <si>
-    <t>タスクまたは題名</t>
-  </si>
-  <si>
-    <t>リストの作成</t>
-  </si>
-  <si>
-    <t>日付</t>
-  </si>
-  <si>
-    <t>項目</t>
-  </si>
-  <si>
-    <t>メモ</t>
-  </si>
-  <si>
-    <t>[メモ]</t>
-  </si>
-  <si>
-    <t>[日付]</t>
-  </si>
-  <si>
-    <t>[項目]</t>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="10"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <rFont val="Meiryo UI"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>項目</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <r>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <rFont val="Meiryo UI"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>項目</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <rFont val="Meiryo UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="5"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>飾り無し</t>
     <rPh sb="0" eb="1">
@@ -239,12 +157,97 @@
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>長方形</t>
+    <rPh sb="0" eb="3">
+      <t>チョウホウケイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>吹き出し</t>
+    <rPh sb="0" eb="1">
+      <t>フキダセィ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>矢印</t>
+    <rPh sb="0" eb="2">
+      <t>ヤジルセィ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>横書き</t>
+    <rPh sb="0" eb="2">
+      <t>ヨコ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>画像</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>SmartArt</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>グループ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>項目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>コメント</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>酢レッド</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">スレッド </t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>[日付]</t>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="21">
+  <fonts count="19">
     <font>
       <b/>
       <sz val="10"/>
@@ -293,52 +296,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color theme="1" tint="0.499984740745262"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="4"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="19"/>
-      <color theme="1" tint="0.14996795556505021"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1" tint="0.499984740745262"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <strike/>
-      <sz val="10"/>
-      <color theme="1" tint="0.499984740745262"/>
-      <name val="Meiryo UI"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="10"/>
-      <color theme="1" tint="0.499984740745262"/>
-      <name val="Meiryo UI"/>
-      <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
@@ -413,27 +374,54 @@
       <color rgb="FF000000"/>
       <name val="Yu Gothic UI"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -444,48 +432,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -494,66 +457,7 @@
     <cellStyle name="見出し 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Meiryo UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Meiryo UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Meiryo UI"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Meiryo UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Meiryo UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <b val="0"/>
@@ -588,9 +492,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="タスク" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="タスク" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="7"/>
-      <tableStyleElement type="headerRow" dxfId="6"/>
-      <tableStyleElement type="firstColumn" dxfId="5"/>
+      <tableStyleElement type="wholeTable" dxfId="2"/>
+      <tableStyleElement type="headerRow" dxfId="1"/>
+      <tableStyleElement type="firstColumn" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1568,7 +1472,7 @@
   <dgm:whole/>
   <dgm:extLst>
     <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
-      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId5" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId6" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
     </a:ext>
   </dgm:extLst>
 </dgm:dataModel>
@@ -1589,12 +1493,12 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1529080" y="0"/>
-          <a:ext cx="1529080" cy="902546"/>
+          <a:off x="1523999" y="0"/>
+          <a:ext cx="1524000" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="trapezoid">
           <a:avLst>
-            <a:gd name="adj" fmla="val 84709"/>
+            <a:gd name="adj" fmla="val 83333"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -1634,12 +1538,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="64770" tIns="64770" rIns="64770" bIns="64770" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="66040" tIns="66040" rIns="66040" bIns="66040" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="2266950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="2311400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -1652,14 +1556,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="5100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="5200" kern="1200"/>
             <a:t>高位</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1529080" y="0"/>
-        <a:ext cx="1529080" cy="902546"/>
+        <a:off x="1523999" y="0"/>
+        <a:ext cx="1524000" cy="914400"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{F9A1FF97-01C8-D349-A765-B2E3D5B4D026}">
@@ -1669,12 +1573,12 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="764539" y="902546"/>
-          <a:ext cx="3058160" cy="902546"/>
+          <a:off x="761999" y="914400"/>
+          <a:ext cx="3048000" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="trapezoid">
           <a:avLst>
-            <a:gd name="adj" fmla="val 84709"/>
+            <a:gd name="adj" fmla="val 83333"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -1714,12 +1618,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="64770" tIns="64770" rIns="64770" bIns="64770" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="66040" tIns="66040" rIns="66040" bIns="66040" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="2266950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="2311400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -1732,14 +1636,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="5100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="5200" kern="1200"/>
             <a:t>中位</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1299718" y="902546"/>
-        <a:ext cx="1987804" cy="902546"/>
+        <a:off x="1295400" y="914400"/>
+        <a:ext cx="1981200" cy="914400"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{D49D4EB5-D196-574A-B7D3-75D2ED524D18}">
@@ -1749,12 +1653,12 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="0" y="1805093"/>
-          <a:ext cx="4587240" cy="902546"/>
+          <a:off x="0" y="1828800"/>
+          <a:ext cx="4572000" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="trapezoid">
           <a:avLst>
-            <a:gd name="adj" fmla="val 84709"/>
+            <a:gd name="adj" fmla="val 83333"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -1794,12 +1698,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="64770" tIns="64770" rIns="64770" bIns="64770" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="66040" tIns="66040" rIns="66040" bIns="66040" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="2266950">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="2311400">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -1812,14 +1716,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="5100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="5200" kern="1200"/>
             <a:t>低位</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="802766" y="1805093"/>
-        <a:ext cx="2981706" cy="902546"/>
+        <a:off x="800100" y="1828800"/>
+        <a:ext cx="2971800" cy="914400"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -3096,23 +3000,89 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1358900</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>375920</xdr:rowOff>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1" descr="文字飾りの代替テキスト">
+        <xdr:cNvPr id="4" name="四角形吹き出し 3" descr="吹き出しの代替えテキスト">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84252C61-4DEF-194D-A5AF-92569E916B47}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A6D3382-EF59-014D-822E-46CE0CE39016}"/>
+            </a:ext>
+            <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
+              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="698500" y="711200"/>
+          <a:ext cx="1412240" cy="345440"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>吹き出しです。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4" descr="文字飾りの代替テキスト">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{012238C7-9777-B940-8BD2-B223EE01BF90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3120,8 +3090,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3220720" y="873760"/>
-          <a:ext cx="962660" cy="375920"/>
+          <a:off x="698500" y="0"/>
+          <a:ext cx="1333500" cy="393700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3171,26 +3141,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>162560</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>10160</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>355600</xdr:rowOff>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="四角形吹き出し 2" descr="吹き出しの代替えテキスト">
+        <xdr:cNvPr id="7" name="右矢印 6" descr="矢印の代替えテキスト">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AB58C74-BAA2-2BEA-6109-BAFC2731CA10}"/>
-            </a:ext>
-            <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
-              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="0"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E6B9EFE-3345-354B-BF29-BD51367A46DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3198,10 +3165,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1513840" y="883920"/>
-          <a:ext cx="1412240" cy="345440"/>
+          <a:off x="698500" y="1600200"/>
+          <a:ext cx="1727200" cy="731520"/>
         </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
+        <a:prstGeom prst="rightArrow">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -3228,7 +3195,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ここからリストです。</a:t>
+            <a:t>右向き矢印</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3237,59 +3204,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>995680</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>5080</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="図表 3" descr="ピラミッド">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B8BA361-12BE-9E97-D4D1-EF3EE6196A2F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
-          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId1" r:lo="rId2" r:qs="rId3" r:cs="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>193040</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>965200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>274320</xdr:rowOff>
+      <xdr:colOff>287020</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>157480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="テキスト ボックス 5" descr="横書きの&#10;代替テキスト">
+        <xdr:cNvPr id="8" name="テキスト ボックス 7" descr="横書きの&#10;代替テキスト">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{930572F5-5BE5-E5B2-E85B-72905CEE464A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B31855B0-E910-D440-9E63-65121EDA8F6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3297,8 +3228,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="487680" y="3332480"/>
-          <a:ext cx="1828800" cy="467360"/>
+          <a:off x="698500" y="533400"/>
+          <a:ext cx="985520" cy="335280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3341,93 +3272,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1036320</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>111760</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="右矢印 6" descr="矢印の代替えテキスト">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C52A76A-FD61-F6B9-5403-D4F9F517BCB3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="660400" y="4064000"/>
-          <a:ext cx="1727200" cy="731520"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>右向き矢印</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="9" name="図 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C83594D-6BB6-7040-8EAF-ADE2892C07FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5FEF77B-4BB0-5343-B866-EA6E27E0DF84}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3449,7 +3312,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
+          <a:off x="698500" y="2667000"/>
           <a:ext cx="812800" cy="812800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3459,6 +3322,221 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="図表 9" descr="ピラミッド">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE0039F0-7172-AE47-8CD1-DF8C5495433A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId2" r:lo="rId3" r:qs="rId4" r:cs="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="グループ化 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B14E1471-70E2-9347-B274-7DB2141D8069}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3492500" y="0"/>
+          <a:ext cx="1041400" cy="889000"/>
+          <a:chOff x="4940300" y="749300"/>
+          <a:chExt cx="1041400" cy="889000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="円/楕円 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFB8C5A7-1081-D829-CBB9-3CEF9D6EA0AD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4940300" y="749300"/>
+            <a:ext cx="381000" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>丸</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="三角形 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{156F782C-6B0E-FB79-22A5-8F5F9F2F48FC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5588000" y="749300"/>
+            <a:ext cx="393700" cy="393700"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>三角</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="正方形/長方形 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1492699E-EF0F-C5CA-6784-37FABBC4E9D7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5245100" y="1270000"/>
+            <a:ext cx="342900" cy="368300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>四角</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3466,23 +3544,6 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="充 鈴木" id="{9B65540F-D25D-BD41-9B4C-5D9023C9CB48}" userId="c6a3d8cc79d402fa" providerId="Windows Live"/>
 </personList>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tasks" displayName="Tasks" ref="B6:D10" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="B6:D10" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="日付" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="項目" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="メモ" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="タスク" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
-      <x14:table altText="タスク リストの表"/>
-    </ext>
-  </extLst>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3748,8 +3809,12 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B7" dT="2024-02-15T18:20:43.65" personId="{9B65540F-D25D-BD41-9B4C-5D9023C9CB48}" id="{E0A5A356-D9F6-C143-9648-196B51E10CD2}">
+  <threadedComment ref="B3" dT="2024-02-15T18:20:43.65" personId="{9B65540F-D25D-BD41-9B4C-5D9023C9CB48}" id="{E0A5A356-D9F6-C143-9648-196B51E10CD2}">
     <text>今日の日付を入力して下さい</text>
+  </threadedComment>
+  <threadedComment ref="B3" dT="2024-02-23T06:07:49.67" personId="{9B65540F-D25D-BD41-9B4C-5D9023C9CB48}" id="{63E52684-F5F0-F343-8AD5-09787D797B18}" parentId="{E0A5A356-D9F6-C143-9648-196B51E10CD2}">
+    <text xml:space="preserve">今日の日付を入力しました
+</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -3769,33 +3834,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="16" t="s">
-        <v>10</v>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="20" t="s">
-        <v>11</v>
+      <c r="A2" s="6" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="18" t="s">
-        <v>12</v>
+      <c r="A3" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="17" t="s">
-        <v>13</v>
+      <c r="A4" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="15" t="s">
-        <v>14</v>
+      <c r="A5" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="45">
-      <c r="A6" s="19" t="s">
-        <v>15</v>
+      <c r="A6" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3805,138 +3870,86 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1">
-    <tabColor theme="4"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4AE38E5-1D67-C84E-96AF-24A24C631A1D}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="2.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.796875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="23.19921875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="29.59765625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="2.3984375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" customHeight="1">
-      <c r="B1" s="2" t="s">
-        <v>0</v>
+    <row r="1" spans="1:2" ht="17" thickBot="1">
+      <c r="A1" t="s">
+        <v>14</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" ht="26">
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="11" customHeight="1">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="5" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" ht="34.5" customHeight="1">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="22.25" customHeight="1">
-      <c r="B6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>4</v>
+      <c r="B1" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1">
-      <c r="B7" s="11" t="s">
-        <v>6</v>
+    <row r="2" spans="1:2" ht="15" thickBot="1"/>
+    <row r="3" spans="1:2" ht="17" thickBot="1">
+      <c r="A3" t="s">
+        <v>15</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1">
-      <c r="B8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1">
-      <c r="B9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1">
-      <c r="B10" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>5</v>
+      <c r="B3" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.2" right="0.2" top="0.36" bottom="0.2" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
-  <headerFooter differentFirst="1">
-    <oddFooter>Page &amp;P of &amp;N</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId4"/>
-  </tableParts>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC92727-E68C-434A-8CDA-1F3DDF2536C4}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="16384" width="11" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
